--- a/results_df_2_lasso1_20250213_analysis.xlsx
+++ b/results_df_2_lasso1_20250213_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredchoi/Desktop/Imperial/Course/Winter Term/Big Data in Finance/HW Assignment/0_data_collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C99B3599-CE59-6743-AD1D-1B0C7B7B00CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{38F5B1D5-B308-BF46-B87C-31047AC09943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20740" activeTab="1" xr2:uid="{D36A4519-C2E7-AE48-9622-0C83653C518B}"/>
   </bookViews>
@@ -30237,8 +30237,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AF9D1C-62B1-2241-AF0B-317D7649EB13}">
   <dimension ref="A1:V349"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -55038,6 +55038,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V349" xr:uid="{B0AF9D1C-62B1-2241-AF0B-317D7649EB13}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>